--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(バッチ)_A1_プロジェクト管理システム.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(バッチ)_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFE706-B133-4E4B-A6FB-AB9B80AAE2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2F4DB-082E-419B-ABED-118D0BED5AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
   <si>
     <t>PJ名</t>
   </si>
@@ -348,16 +348,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Spring Frameworkのメッセージ管理方式をベースに見直し</t>
     <rPh sb="22" eb="24">
       <t>カンリ</t>
@@ -373,6 +363,53 @@
   <si>
     <t>1. メッセージ設計(日本語)</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.business-date-not-found</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>業務日付が存在しません(segment_id={0})</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>業務日付更新バッチで使用するメッセージを追加</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -743,7 +780,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1005,66 +1042,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1162,10 +1205,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2001,7 +2041,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="J23" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,7 +2055,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="52">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44697</v>
+        <v>44866</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -2717,7 +2757,7 @@
       <c r="AF2" s="68"/>
       <c r="AG2" s="53">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44697</v>
+        <v>44866</v>
       </c>
       <c r="AH2" s="54"/>
       <c r="AI2" s="55"/>
@@ -2854,52 +2894,52 @@
       <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43635</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="111" t="s">
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
     </row>
     <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
@@ -2919,8 +2959,8 @@
       </c>
       <c r="H9" s="96"/>
       <c r="I9" s="92"/>
-      <c r="J9" s="150" t="s">
-        <v>64</v>
+      <c r="J9" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="K9" s="98"/>
       <c r="L9" s="98"/>
@@ -2928,8 +2968,8 @@
       <c r="N9" s="98"/>
       <c r="O9" s="98"/>
       <c r="P9" s="99"/>
-      <c r="Q9" s="149" t="s">
-        <v>63</v>
+      <c r="Q9" s="100" t="s">
+        <v>62</v>
       </c>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
@@ -2945,7 +2985,7 @@
       <c r="AC9" s="101"/>
       <c r="AD9" s="101"/>
       <c r="AE9" s="102"/>
-      <c r="AF9" s="97" t="s">
+      <c r="AF9" s="103" t="s">
         <v>61</v>
       </c>
       <c r="AG9" s="98"/>
@@ -2953,23 +2993,35 @@
       <c r="AI9" s="99"/>
     </row>
     <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="91"/>
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="151" t="s">
+        <v>66</v>
+      </c>
       <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
+      <c r="D10" s="93">
+        <v>44866</v>
+      </c>
       <c r="E10" s="94"/>
       <c r="F10" s="95"/>
-      <c r="G10" s="91"/>
+      <c r="G10" s="93" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="96"/>
       <c r="I10" s="92"/>
-      <c r="J10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>63</v>
+      </c>
       <c r="K10" s="98"/>
       <c r="L10" s="98"/>
       <c r="M10" s="98"/>
       <c r="N10" s="98"/>
       <c r="O10" s="98"/>
       <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
+      <c r="Q10" s="100" t="s">
+        <v>67</v>
+      </c>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
       <c r="T10" s="101"/>
@@ -2984,7 +3036,9 @@
       <c r="AC10" s="101"/>
       <c r="AD10" s="101"/>
       <c r="AE10" s="102"/>
-      <c r="AF10" s="97"/>
+      <c r="AF10" s="103" t="s">
+        <v>61</v>
+      </c>
       <c r="AG10" s="98"/>
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
@@ -2999,14 +3053,14 @@
       <c r="G11" s="91"/>
       <c r="H11" s="96"/>
       <c r="I11" s="92"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="98"/>
       <c r="L11" s="98"/>
       <c r="M11" s="98"/>
       <c r="N11" s="98"/>
       <c r="O11" s="98"/>
       <c r="P11" s="99"/>
-      <c r="Q11" s="100"/>
+      <c r="Q11" s="118"/>
       <c r="R11" s="101"/>
       <c r="S11" s="101"/>
       <c r="T11" s="101"/>
@@ -3021,7 +3075,7 @@
       <c r="AC11" s="101"/>
       <c r="AD11" s="101"/>
       <c r="AE11" s="102"/>
-      <c r="AF11" s="97"/>
+      <c r="AF11" s="103"/>
       <c r="AG11" s="98"/>
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
@@ -3036,14 +3090,14 @@
       <c r="G12" s="91"/>
       <c r="H12" s="96"/>
       <c r="I12" s="92"/>
-      <c r="J12" s="97"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="98"/>
       <c r="L12" s="98"/>
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
       <c r="O12" s="98"/>
       <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
+      <c r="Q12" s="118"/>
       <c r="R12" s="101"/>
       <c r="S12" s="101"/>
       <c r="T12" s="101"/>
@@ -3058,7 +3112,7 @@
       <c r="AC12" s="101"/>
       <c r="AD12" s="101"/>
       <c r="AE12" s="102"/>
-      <c r="AF12" s="97"/>
+      <c r="AF12" s="103"/>
       <c r="AG12" s="98"/>
       <c r="AH12" s="98"/>
       <c r="AI12" s="99"/>
@@ -3073,14 +3127,14 @@
       <c r="G13" s="91"/>
       <c r="H13" s="96"/>
       <c r="I13" s="92"/>
-      <c r="J13" s="97"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
       <c r="N13" s="98"/>
       <c r="O13" s="98"/>
       <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
+      <c r="Q13" s="118"/>
       <c r="R13" s="101"/>
       <c r="S13" s="101"/>
       <c r="T13" s="101"/>
@@ -3095,7 +3149,7 @@
       <c r="AC13" s="101"/>
       <c r="AD13" s="101"/>
       <c r="AE13" s="102"/>
-      <c r="AF13" s="97"/>
+      <c r="AF13" s="103"/>
       <c r="AG13" s="98"/>
       <c r="AH13" s="98"/>
       <c r="AI13" s="99"/>
@@ -3110,14 +3164,14 @@
       <c r="G14" s="91"/>
       <c r="H14" s="96"/>
       <c r="I14" s="92"/>
-      <c r="J14" s="97"/>
+      <c r="J14" s="103"/>
       <c r="K14" s="98"/>
       <c r="L14" s="98"/>
       <c r="M14" s="98"/>
       <c r="N14" s="98"/>
       <c r="O14" s="98"/>
       <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
+      <c r="Q14" s="118"/>
       <c r="R14" s="101"/>
       <c r="S14" s="101"/>
       <c r="T14" s="101"/>
@@ -3132,7 +3186,7 @@
       <c r="AC14" s="101"/>
       <c r="AD14" s="101"/>
       <c r="AE14" s="102"/>
-      <c r="AF14" s="97"/>
+      <c r="AF14" s="103"/>
       <c r="AG14" s="98"/>
       <c r="AH14" s="98"/>
       <c r="AI14" s="99"/>
@@ -3147,14 +3201,14 @@
       <c r="G15" s="91"/>
       <c r="H15" s="96"/>
       <c r="I15" s="92"/>
-      <c r="J15" s="97"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="98"/>
       <c r="L15" s="98"/>
       <c r="M15" s="98"/>
       <c r="N15" s="98"/>
       <c r="O15" s="98"/>
       <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
+      <c r="Q15" s="118"/>
       <c r="R15" s="101"/>
       <c r="S15" s="101"/>
       <c r="T15" s="101"/>
@@ -3169,7 +3223,7 @@
       <c r="AC15" s="101"/>
       <c r="AD15" s="101"/>
       <c r="AE15" s="102"/>
-      <c r="AF15" s="97"/>
+      <c r="AF15" s="103"/>
       <c r="AG15" s="98"/>
       <c r="AH15" s="98"/>
       <c r="AI15" s="99"/>
@@ -3184,14 +3238,14 @@
       <c r="G16" s="91"/>
       <c r="H16" s="96"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="97"/>
+      <c r="J16" s="103"/>
       <c r="K16" s="98"/>
       <c r="L16" s="98"/>
       <c r="M16" s="98"/>
       <c r="N16" s="98"/>
       <c r="O16" s="98"/>
       <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
+      <c r="Q16" s="118"/>
       <c r="R16" s="101"/>
       <c r="S16" s="101"/>
       <c r="T16" s="101"/>
@@ -3206,7 +3260,7 @@
       <c r="AC16" s="101"/>
       <c r="AD16" s="101"/>
       <c r="AE16" s="102"/>
-      <c r="AF16" s="97"/>
+      <c r="AF16" s="103"/>
       <c r="AG16" s="98"/>
       <c r="AH16" s="98"/>
       <c r="AI16" s="99"/>
@@ -3221,14 +3275,14 @@
       <c r="G17" s="91"/>
       <c r="H17" s="96"/>
       <c r="I17" s="92"/>
-      <c r="J17" s="97"/>
+      <c r="J17" s="103"/>
       <c r="K17" s="98"/>
       <c r="L17" s="98"/>
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
       <c r="O17" s="98"/>
       <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
+      <c r="Q17" s="118"/>
       <c r="R17" s="101"/>
       <c r="S17" s="101"/>
       <c r="T17" s="101"/>
@@ -3243,7 +3297,7 @@
       <c r="AC17" s="101"/>
       <c r="AD17" s="101"/>
       <c r="AE17" s="102"/>
-      <c r="AF17" s="97"/>
+      <c r="AF17" s="103"/>
       <c r="AG17" s="98"/>
       <c r="AH17" s="98"/>
       <c r="AI17" s="99"/>
@@ -3258,14 +3312,14 @@
       <c r="G18" s="91"/>
       <c r="H18" s="96"/>
       <c r="I18" s="92"/>
-      <c r="J18" s="97"/>
+      <c r="J18" s="103"/>
       <c r="K18" s="98"/>
       <c r="L18" s="98"/>
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
       <c r="P18" s="99"/>
-      <c r="Q18" s="100"/>
+      <c r="Q18" s="118"/>
       <c r="R18" s="101"/>
       <c r="S18" s="101"/>
       <c r="T18" s="101"/>
@@ -3280,7 +3334,7 @@
       <c r="AC18" s="101"/>
       <c r="AD18" s="101"/>
       <c r="AE18" s="102"/>
-      <c r="AF18" s="97"/>
+      <c r="AF18" s="103"/>
       <c r="AG18" s="98"/>
       <c r="AH18" s="98"/>
       <c r="AI18" s="99"/>
@@ -3295,14 +3349,14 @@
       <c r="G19" s="91"/>
       <c r="H19" s="96"/>
       <c r="I19" s="92"/>
-      <c r="J19" s="97"/>
+      <c r="J19" s="103"/>
       <c r="K19" s="98"/>
       <c r="L19" s="98"/>
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
       <c r="O19" s="98"/>
       <c r="P19" s="99"/>
-      <c r="Q19" s="100"/>
+      <c r="Q19" s="118"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -3317,7 +3371,7 @@
       <c r="AC19" s="101"/>
       <c r="AD19" s="101"/>
       <c r="AE19" s="102"/>
-      <c r="AF19" s="97"/>
+      <c r="AF19" s="103"/>
       <c r="AG19" s="98"/>
       <c r="AH19" s="98"/>
       <c r="AI19" s="99"/>
@@ -3332,14 +3386,14 @@
       <c r="G20" s="91"/>
       <c r="H20" s="96"/>
       <c r="I20" s="92"/>
-      <c r="J20" s="97"/>
+      <c r="J20" s="103"/>
       <c r="K20" s="98"/>
       <c r="L20" s="98"/>
       <c r="M20" s="98"/>
       <c r="N20" s="98"/>
       <c r="O20" s="98"/>
       <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
+      <c r="Q20" s="118"/>
       <c r="R20" s="101"/>
       <c r="S20" s="101"/>
       <c r="T20" s="101"/>
@@ -3354,7 +3408,7 @@
       <c r="AC20" s="101"/>
       <c r="AD20" s="101"/>
       <c r="AE20" s="102"/>
-      <c r="AF20" s="97"/>
+      <c r="AF20" s="103"/>
       <c r="AG20" s="98"/>
       <c r="AH20" s="98"/>
       <c r="AI20" s="99"/>
@@ -3369,14 +3423,14 @@
       <c r="G21" s="91"/>
       <c r="H21" s="96"/>
       <c r="I21" s="92"/>
-      <c r="J21" s="97"/>
+      <c r="J21" s="103"/>
       <c r="K21" s="98"/>
       <c r="L21" s="98"/>
       <c r="M21" s="98"/>
       <c r="N21" s="98"/>
       <c r="O21" s="98"/>
       <c r="P21" s="99"/>
-      <c r="Q21" s="100"/>
+      <c r="Q21" s="118"/>
       <c r="R21" s="101"/>
       <c r="S21" s="101"/>
       <c r="T21" s="101"/>
@@ -3391,7 +3445,7 @@
       <c r="AC21" s="101"/>
       <c r="AD21" s="101"/>
       <c r="AE21" s="102"/>
-      <c r="AF21" s="97"/>
+      <c r="AF21" s="103"/>
       <c r="AG21" s="98"/>
       <c r="AH21" s="98"/>
       <c r="AI21" s="99"/>
@@ -3406,14 +3460,14 @@
       <c r="G22" s="91"/>
       <c r="H22" s="96"/>
       <c r="I22" s="92"/>
-      <c r="J22" s="97"/>
+      <c r="J22" s="103"/>
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
       <c r="M22" s="98"/>
       <c r="N22" s="98"/>
       <c r="O22" s="98"/>
       <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
+      <c r="Q22" s="118"/>
       <c r="R22" s="101"/>
       <c r="S22" s="101"/>
       <c r="T22" s="101"/>
@@ -3428,7 +3482,7 @@
       <c r="AC22" s="101"/>
       <c r="AD22" s="101"/>
       <c r="AE22" s="102"/>
-      <c r="AF22" s="97"/>
+      <c r="AF22" s="103"/>
       <c r="AG22" s="98"/>
       <c r="AH22" s="98"/>
       <c r="AI22" s="99"/>
@@ -3443,14 +3497,14 @@
       <c r="G23" s="91"/>
       <c r="H23" s="96"/>
       <c r="I23" s="92"/>
-      <c r="J23" s="97"/>
+      <c r="J23" s="103"/>
       <c r="K23" s="98"/>
       <c r="L23" s="98"/>
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
       <c r="O23" s="98"/>
       <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
+      <c r="Q23" s="118"/>
       <c r="R23" s="101"/>
       <c r="S23" s="101"/>
       <c r="T23" s="101"/>
@@ -3465,7 +3519,7 @@
       <c r="AC23" s="101"/>
       <c r="AD23" s="101"/>
       <c r="AE23" s="102"/>
-      <c r="AF23" s="97"/>
+      <c r="AF23" s="103"/>
       <c r="AG23" s="98"/>
       <c r="AH23" s="98"/>
       <c r="AI23" s="99"/>
@@ -3480,14 +3534,14 @@
       <c r="G24" s="91"/>
       <c r="H24" s="96"/>
       <c r="I24" s="92"/>
-      <c r="J24" s="97"/>
+      <c r="J24" s="103"/>
       <c r="K24" s="98"/>
       <c r="L24" s="98"/>
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
       <c r="O24" s="98"/>
       <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
+      <c r="Q24" s="118"/>
       <c r="R24" s="101"/>
       <c r="S24" s="101"/>
       <c r="T24" s="101"/>
@@ -3502,7 +3556,7 @@
       <c r="AC24" s="101"/>
       <c r="AD24" s="101"/>
       <c r="AE24" s="102"/>
-      <c r="AF24" s="97"/>
+      <c r="AF24" s="103"/>
       <c r="AG24" s="98"/>
       <c r="AH24" s="98"/>
       <c r="AI24" s="99"/>
@@ -3517,14 +3571,14 @@
       <c r="G25" s="91"/>
       <c r="H25" s="96"/>
       <c r="I25" s="92"/>
-      <c r="J25" s="97"/>
+      <c r="J25" s="103"/>
       <c r="K25" s="98"/>
       <c r="L25" s="98"/>
       <c r="M25" s="98"/>
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
+      <c r="Q25" s="118"/>
       <c r="R25" s="101"/>
       <c r="S25" s="101"/>
       <c r="T25" s="101"/>
@@ -3539,7 +3593,7 @@
       <c r="AC25" s="101"/>
       <c r="AD25" s="101"/>
       <c r="AE25" s="102"/>
-      <c r="AF25" s="97"/>
+      <c r="AF25" s="103"/>
       <c r="AG25" s="98"/>
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
@@ -3554,14 +3608,14 @@
       <c r="G26" s="91"/>
       <c r="H26" s="96"/>
       <c r="I26" s="92"/>
-      <c r="J26" s="97"/>
+      <c r="J26" s="103"/>
       <c r="K26" s="98"/>
       <c r="L26" s="98"/>
       <c r="M26" s="98"/>
       <c r="N26" s="98"/>
       <c r="O26" s="98"/>
       <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
+      <c r="Q26" s="118"/>
       <c r="R26" s="101"/>
       <c r="S26" s="101"/>
       <c r="T26" s="101"/>
@@ -3576,7 +3630,7 @@
       <c r="AC26" s="101"/>
       <c r="AD26" s="101"/>
       <c r="AE26" s="102"/>
-      <c r="AF26" s="97"/>
+      <c r="AF26" s="103"/>
       <c r="AG26" s="98"/>
       <c r="AH26" s="98"/>
       <c r="AI26" s="99"/>
@@ -3591,14 +3645,14 @@
       <c r="G27" s="91"/>
       <c r="H27" s="96"/>
       <c r="I27" s="92"/>
-      <c r="J27" s="97"/>
+      <c r="J27" s="103"/>
       <c r="K27" s="98"/>
       <c r="L27" s="98"/>
       <c r="M27" s="98"/>
       <c r="N27" s="98"/>
       <c r="O27" s="98"/>
       <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
+      <c r="Q27" s="118"/>
       <c r="R27" s="101"/>
       <c r="S27" s="101"/>
       <c r="T27" s="101"/>
@@ -3613,7 +3667,7 @@
       <c r="AC27" s="101"/>
       <c r="AD27" s="101"/>
       <c r="AE27" s="102"/>
-      <c r="AF27" s="97"/>
+      <c r="AF27" s="103"/>
       <c r="AG27" s="98"/>
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
@@ -3628,14 +3682,14 @@
       <c r="G28" s="91"/>
       <c r="H28" s="96"/>
       <c r="I28" s="92"/>
-      <c r="J28" s="97"/>
+      <c r="J28" s="103"/>
       <c r="K28" s="98"/>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
       <c r="N28" s="98"/>
       <c r="O28" s="98"/>
       <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
+      <c r="Q28" s="118"/>
       <c r="R28" s="101"/>
       <c r="S28" s="101"/>
       <c r="T28" s="101"/>
@@ -3650,7 +3704,7 @@
       <c r="AC28" s="101"/>
       <c r="AD28" s="101"/>
       <c r="AE28" s="102"/>
-      <c r="AF28" s="97"/>
+      <c r="AF28" s="103"/>
       <c r="AG28" s="98"/>
       <c r="AH28" s="98"/>
       <c r="AI28" s="99"/>
@@ -3665,14 +3719,14 @@
       <c r="G29" s="91"/>
       <c r="H29" s="96"/>
       <c r="I29" s="92"/>
-      <c r="J29" s="97"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="98"/>
       <c r="L29" s="98"/>
       <c r="M29" s="98"/>
       <c r="N29" s="98"/>
       <c r="O29" s="98"/>
       <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
+      <c r="Q29" s="118"/>
       <c r="R29" s="101"/>
       <c r="S29" s="101"/>
       <c r="T29" s="101"/>
@@ -3687,7 +3741,7 @@
       <c r="AC29" s="101"/>
       <c r="AD29" s="101"/>
       <c r="AE29" s="102"/>
-      <c r="AF29" s="97"/>
+      <c r="AF29" s="103"/>
       <c r="AG29" s="98"/>
       <c r="AH29" s="98"/>
       <c r="AI29" s="99"/>
@@ -3702,14 +3756,14 @@
       <c r="G30" s="91"/>
       <c r="H30" s="96"/>
       <c r="I30" s="92"/>
-      <c r="J30" s="97"/>
+      <c r="J30" s="103"/>
       <c r="K30" s="98"/>
       <c r="L30" s="98"/>
       <c r="M30" s="98"/>
       <c r="N30" s="98"/>
       <c r="O30" s="98"/>
       <c r="P30" s="99"/>
-      <c r="Q30" s="100"/>
+      <c r="Q30" s="118"/>
       <c r="R30" s="101"/>
       <c r="S30" s="101"/>
       <c r="T30" s="101"/>
@@ -3724,7 +3778,7 @@
       <c r="AC30" s="101"/>
       <c r="AD30" s="101"/>
       <c r="AE30" s="102"/>
-      <c r="AF30" s="97"/>
+      <c r="AF30" s="103"/>
       <c r="AG30" s="98"/>
       <c r="AH30" s="98"/>
       <c r="AI30" s="99"/>
@@ -3739,14 +3793,14 @@
       <c r="G31" s="91"/>
       <c r="H31" s="96"/>
       <c r="I31" s="92"/>
-      <c r="J31" s="97"/>
+      <c r="J31" s="103"/>
       <c r="K31" s="98"/>
       <c r="L31" s="98"/>
       <c r="M31" s="98"/>
       <c r="N31" s="98"/>
       <c r="O31" s="98"/>
       <c r="P31" s="99"/>
-      <c r="Q31" s="100"/>
+      <c r="Q31" s="118"/>
       <c r="R31" s="101"/>
       <c r="S31" s="101"/>
       <c r="T31" s="101"/>
@@ -3761,7 +3815,7 @@
       <c r="AC31" s="101"/>
       <c r="AD31" s="101"/>
       <c r="AE31" s="102"/>
-      <c r="AF31" s="97"/>
+      <c r="AF31" s="103"/>
       <c r="AG31" s="98"/>
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
@@ -3776,14 +3830,14 @@
       <c r="G32" s="91"/>
       <c r="H32" s="96"/>
       <c r="I32" s="92"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="117"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="119"/>
       <c r="L32" s="98"/>
       <c r="M32" s="98"/>
       <c r="N32" s="98"/>
       <c r="O32" s="98"/>
       <c r="P32" s="99"/>
-      <c r="Q32" s="100"/>
+      <c r="Q32" s="118"/>
       <c r="R32" s="101"/>
       <c r="S32" s="101"/>
       <c r="T32" s="101"/>
@@ -3798,7 +3852,7 @@
       <c r="AC32" s="101"/>
       <c r="AD32" s="101"/>
       <c r="AE32" s="102"/>
-      <c r="AF32" s="97"/>
+      <c r="AF32" s="103"/>
       <c r="AG32" s="98"/>
       <c r="AH32" s="98"/>
       <c r="AI32" s="99"/>
@@ -3813,14 +3867,14 @@
       <c r="G33" s="91"/>
       <c r="H33" s="96"/>
       <c r="I33" s="92"/>
-      <c r="J33" s="97"/>
+      <c r="J33" s="103"/>
       <c r="K33" s="98"/>
       <c r="L33" s="98"/>
       <c r="M33" s="98"/>
       <c r="N33" s="98"/>
       <c r="O33" s="98"/>
       <c r="P33" s="99"/>
-      <c r="Q33" s="100"/>
+      <c r="Q33" s="118"/>
       <c r="R33" s="101"/>
       <c r="S33" s="101"/>
       <c r="T33" s="101"/>
@@ -3835,7 +3889,7 @@
       <c r="AC33" s="101"/>
       <c r="AD33" s="101"/>
       <c r="AE33" s="102"/>
-      <c r="AF33" s="97"/>
+      <c r="AF33" s="103"/>
       <c r="AG33" s="98"/>
       <c r="AH33" s="98"/>
       <c r="AI33" s="99"/>
@@ -4227,12 +4281,12 @@
       <c r="AD1" s="88"/>
       <c r="AE1" s="88"/>
       <c r="AF1" s="89"/>
-      <c r="AG1" s="118">
+      <c r="AG1" s="120">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43635</v>
       </c>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="120"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="122"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
@@ -4280,12 +4334,12 @@
       <c r="AD2" s="88"/>
       <c r="AE2" s="88"/>
       <c r="AF2" s="89"/>
-      <c r="AG2" s="118">
+      <c r="AG2" s="120">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44697</v>
-      </c>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="120"/>
+        <v>44866</v>
+      </c>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="122"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -4331,12 +4385,12 @@
       <c r="AD3" s="88"/>
       <c r="AE3" s="88"/>
       <c r="AF3" s="89"/>
-      <c r="AG3" s="118" t="str">
+      <c r="AG3" s="120" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="122"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5573,33 +5627,33 @@
       <c r="R1" s="64"/>
       <c r="S1" s="64"/>
       <c r="T1" s="65"/>
-      <c r="U1" s="130" t="s">
+      <c r="U1" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="139" t="str">
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="140"/>
-      <c r="AP1" s="141"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="143"/>
       <c r="AQ1" s="60" t="s">
         <v>3</v>
       </c>
@@ -5611,12 +5665,12 @@
       <c r="AT1" s="88"/>
       <c r="AU1" s="88"/>
       <c r="AV1" s="89"/>
-      <c r="AW1" s="118">
+      <c r="AW1" s="120">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43635</v>
       </c>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="120"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="122"/>
     </row>
     <row r="2" spans="1:51" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="60" t="s">
@@ -5644,28 +5698,28 @@
       <c r="R2" s="64"/>
       <c r="S2" s="64"/>
       <c r="T2" s="65"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="144"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="146"/>
       <c r="AQ2" s="60" t="s">
         <v>4</v>
       </c>
@@ -5677,12 +5731,12 @@
       <c r="AT2" s="88"/>
       <c r="AU2" s="88"/>
       <c r="AV2" s="89"/>
-      <c r="AW2" s="118">
+      <c r="AW2" s="120">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44697</v>
-      </c>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="120"/>
+        <v>44866</v>
+      </c>
+      <c r="AX2" s="121"/>
+      <c r="AY2" s="122"/>
     </row>
     <row r="3" spans="1:51" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
@@ -5710,28 +5764,28 @@
       <c r="R3" s="64"/>
       <c r="S3" s="64"/>
       <c r="T3" s="65"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="146"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="146"/>
-      <c r="AP3" s="147"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="148"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="149"/>
       <c r="AQ3" s="60"/>
       <c r="AR3" s="62"/>
       <c r="AS3" s="87" t="str">
@@ -5741,12 +5795,12 @@
       <c r="AT3" s="88"/>
       <c r="AU3" s="88"/>
       <c r="AV3" s="89"/>
-      <c r="AW3" s="118" t="str">
+      <c r="AW3" s="120" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="120"/>
+      <c r="AX3" s="121"/>
+      <c r="AY3" s="122"/>
     </row>
     <row r="4" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:51" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5761,895 +5815,899 @@
       <c r="C7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="127" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="128"/>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="148" t="s">
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130"/>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="AU7" s="128"/>
-      <c r="AV7" s="128"/>
-      <c r="AW7" s="128"/>
-      <c r="AX7" s="129"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
+      <c r="AX7" s="131"/>
     </row>
     <row r="8" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="51">
         <v>1</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="121" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
-      <c r="AL8" s="122"/>
-      <c r="AM8" s="122"/>
-      <c r="AN8" s="122"/>
-      <c r="AO8" s="122"/>
-      <c r="AP8" s="122"/>
-      <c r="AQ8" s="122"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="123"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="122"/>
-      <c r="AV8" s="122"/>
-      <c r="AW8" s="122"/>
-      <c r="AX8" s="123"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="125"/>
+      <c r="AT8" s="123"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="125"/>
     </row>
     <row r="9" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="51">
         <v>2</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="121" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="122"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="122"/>
-      <c r="AR9" s="122"/>
-      <c r="AS9" s="123"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="122"/>
-      <c r="AV9" s="122"/>
-      <c r="AW9" s="122"/>
-      <c r="AX9" s="123"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="124"/>
+      <c r="AS9" s="125"/>
+      <c r="AT9" s="123"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
+      <c r="AX9" s="125"/>
     </row>
     <row r="10" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="51">
         <v>3</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="121" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="122"/>
-      <c r="AN10" s="122"/>
-      <c r="AO10" s="122"/>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="122"/>
-      <c r="AR10" s="122"/>
-      <c r="AS10" s="123"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="122"/>
-      <c r="AV10" s="122"/>
-      <c r="AW10" s="122"/>
-      <c r="AX10" s="123"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="124"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="125"/>
+      <c r="AT10" s="123"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="125"/>
     </row>
     <row r="11" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="51">
         <v>4</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="121" t="s">
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="122"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="122"/>
-      <c r="AV11" s="122"/>
-      <c r="AW11" s="122"/>
-      <c r="AX11" s="123"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="124"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="125"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="124"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="124"/>
+      <c r="AX11" s="125"/>
     </row>
     <row r="12" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="51">
         <v>5</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="121" t="s">
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="122"/>
-      <c r="AP12" s="122"/>
-      <c r="AQ12" s="122"/>
-      <c r="AR12" s="122"/>
-      <c r="AS12" s="123"/>
-      <c r="AT12" s="121"/>
-      <c r="AU12" s="122"/>
-      <c r="AV12" s="122"/>
-      <c r="AW12" s="122"/>
-      <c r="AX12" s="123"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="125"/>
+      <c r="AT12" s="123"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="125"/>
     </row>
     <row r="13" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="51">
         <v>6</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="125" t="s">
+      <c r="E13" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125" t="s">
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="125" t="s">
+      <c r="K13" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="125" t="s">
+      <c r="L13" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="125" t="s">
+      <c r="M13" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="126" t="s">
+      <c r="N13" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="121" t="s">
+      <c r="O13" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="122" t="s">
+      <c r="P13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="122" t="s">
+      <c r="Q13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="122" t="s">
+      <c r="R13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="122" t="s">
+      <c r="S13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="122" t="s">
+      <c r="T13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="122" t="s">
+      <c r="U13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="122" t="s">
+      <c r="V13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="122" t="s">
+      <c r="W13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="X13" s="122" t="s">
+      <c r="X13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="Y13" s="122" t="s">
+      <c r="Y13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="Z13" s="122" t="s">
+      <c r="Z13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122" t="s">
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AL13" s="122" t="s">
+      <c r="AL13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AM13" s="122" t="s">
+      <c r="AM13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AN13" s="122" t="s">
+      <c r="AN13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AO13" s="122" t="s">
+      <c r="AO13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AP13" s="122" t="s">
+      <c r="AP13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AQ13" s="122" t="s">
+      <c r="AQ13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AR13" s="122" t="s">
+      <c r="AR13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AS13" s="123" t="s">
+      <c r="AS13" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="122"/>
-      <c r="AV13" s="122"/>
-      <c r="AW13" s="122"/>
-      <c r="AX13" s="123"/>
+      <c r="AT13" s="123"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="124"/>
+      <c r="AW13" s="124"/>
+      <c r="AX13" s="125"/>
     </row>
     <row r="14" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="51">
         <v>7</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125" t="s">
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="125" t="s">
+      <c r="K14" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="125" t="s">
+      <c r="L14" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M14" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="126" t="s">
+      <c r="N14" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="121" t="s">
+      <c r="O14" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="122" t="s">
+      <c r="P14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="122" t="s">
+      <c r="Q14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="122" t="s">
+      <c r="R14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="122" t="s">
+      <c r="S14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="122" t="s">
+      <c r="T14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="122" t="s">
+      <c r="U14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="122" t="s">
+      <c r="V14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="122" t="s">
+      <c r="W14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="X14" s="122" t="s">
+      <c r="X14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" s="122" t="s">
+      <c r="Y14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="Z14" s="122" t="s">
+      <c r="Z14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="122"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="122" t="s">
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AL14" s="122" t="s">
+      <c r="AL14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AM14" s="122" t="s">
+      <c r="AM14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AN14" s="122" t="s">
+      <c r="AN14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AO14" s="122" t="s">
+      <c r="AO14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AP14" s="122" t="s">
+      <c r="AP14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AQ14" s="122" t="s">
+      <c r="AQ14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AR14" s="122" t="s">
+      <c r="AR14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="AS14" s="123" t="s">
+      <c r="AS14" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AT14" s="121"/>
-      <c r="AU14" s="122"/>
-      <c r="AV14" s="122"/>
-      <c r="AW14" s="122"/>
-      <c r="AX14" s="123"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
+      <c r="AX14" s="125"/>
     </row>
     <row r="15" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="51">
         <v>8</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="121" t="s">
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="122"/>
-      <c r="AC15" s="122"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="122"/>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="122"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="122"/>
-      <c r="AL15" s="122"/>
-      <c r="AM15" s="122"/>
-      <c r="AN15" s="122"/>
-      <c r="AO15" s="122"/>
-      <c r="AP15" s="122"/>
-      <c r="AQ15" s="122"/>
-      <c r="AR15" s="122"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="122"/>
-      <c r="AV15" s="122"/>
-      <c r="AW15" s="122"/>
-      <c r="AX15" s="123"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
+      <c r="AX15" s="125"/>
     </row>
     <row r="16" spans="1:51" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="51">
         <v>9</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="121" t="s">
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="122"/>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="122"/>
-      <c r="AI16" s="122"/>
-      <c r="AJ16" s="122"/>
-      <c r="AK16" s="122"/>
-      <c r="AL16" s="122"/>
-      <c r="AM16" s="122"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="122"/>
-      <c r="AP16" s="122"/>
-      <c r="AQ16" s="122"/>
-      <c r="AR16" s="122"/>
-      <c r="AS16" s="123"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="122"/>
-      <c r="AV16" s="122"/>
-      <c r="AW16" s="122"/>
-      <c r="AX16" s="123"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="123"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
+      <c r="AX16" s="125"/>
     </row>
     <row r="17" spans="3:50" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="51">
         <v>10</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="121" t="s">
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="122"/>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="122"/>
-      <c r="AJ17" s="122"/>
-      <c r="AK17" s="122"/>
-      <c r="AL17" s="122"/>
-      <c r="AM17" s="122"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="122"/>
-      <c r="AP17" s="122"/>
-      <c r="AQ17" s="122"/>
-      <c r="AR17" s="122"/>
-      <c r="AS17" s="123"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="122"/>
-      <c r="AV17" s="122"/>
-      <c r="AW17" s="122"/>
-      <c r="AX17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="124"/>
+      <c r="AM17" s="124"/>
+      <c r="AN17" s="124"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="123"/>
+      <c r="AU17" s="124"/>
+      <c r="AV17" s="124"/>
+      <c r="AW17" s="124"/>
+      <c r="AX17" s="125"/>
     </row>
     <row r="18" spans="3:50" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="51">
         <v>11</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="121" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="122"/>
-      <c r="AI18" s="122"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="122"/>
-      <c r="AL18" s="122"/>
-      <c r="AM18" s="122"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="122"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="122"/>
-      <c r="AR18" s="122"/>
-      <c r="AS18" s="123"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="122"/>
-      <c r="AV18" s="122"/>
-      <c r="AW18" s="122"/>
-      <c r="AX18" s="123"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
+      <c r="AX18" s="125"/>
     </row>
     <row r="19" spans="3:50" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="51">
         <v>12</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="121" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
-      <c r="AL19" s="122"/>
-      <c r="AM19" s="122"/>
-      <c r="AN19" s="122"/>
-      <c r="AO19" s="122"/>
-      <c r="AP19" s="122"/>
-      <c r="AQ19" s="122"/>
-      <c r="AR19" s="122"/>
-      <c r="AS19" s="123"/>
-      <c r="AT19" s="121"/>
-      <c r="AU19" s="122"/>
-      <c r="AV19" s="122"/>
-      <c r="AW19" s="122"/>
-      <c r="AX19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="124"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="124"/>
+      <c r="AS19" s="125"/>
+      <c r="AT19" s="123"/>
+      <c r="AU19" s="124"/>
+      <c r="AV19" s="124"/>
+      <c r="AW19" s="124"/>
+      <c r="AX19" s="125"/>
     </row>
     <row r="20" spans="3:50" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="51">
         <v>13</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="121" t="s">
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="122"/>
-      <c r="AL20" s="122"/>
-      <c r="AM20" s="122"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="122"/>
-      <c r="AP20" s="122"/>
-      <c r="AQ20" s="122"/>
-      <c r="AR20" s="122"/>
-      <c r="AS20" s="123"/>
-      <c r="AT20" s="121"/>
-      <c r="AU20" s="122"/>
-      <c r="AV20" s="122"/>
-      <c r="AW20" s="122"/>
-      <c r="AX20" s="123"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="124"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="124"/>
+      <c r="AK20" s="124"/>
+      <c r="AL20" s="124"/>
+      <c r="AM20" s="124"/>
+      <c r="AN20" s="124"/>
+      <c r="AO20" s="124"/>
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="125"/>
+      <c r="AT20" s="123"/>
+      <c r="AU20" s="124"/>
+      <c r="AV20" s="124"/>
+      <c r="AW20" s="124"/>
+      <c r="AX20" s="125"/>
     </row>
     <row r="21" spans="3:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="48"/>
-      <c r="D21" s="100"/>
+      <c r="C21" s="48">
+        <v>14</v>
+      </c>
+      <c r="D21" s="100" t="s">
+        <v>64</v>
+      </c>
       <c r="E21" s="101"/>
       <c r="F21" s="101"/>
       <c r="G21" s="101"/>
@@ -6660,7 +6718,9 @@
       <c r="L21" s="101"/>
       <c r="M21" s="101"/>
       <c r="N21" s="102"/>
-      <c r="O21" s="97"/>
+      <c r="O21" s="97" t="s">
+        <v>65</v>
+      </c>
       <c r="P21" s="98"/>
       <c r="Q21" s="98"/>
       <c r="R21" s="98"/>
@@ -6691,7 +6751,7 @@
       <c r="AQ21" s="98"/>
       <c r="AR21" s="98"/>
       <c r="AS21" s="99"/>
-      <c r="AT21" s="97"/>
+      <c r="AT21" s="103"/>
       <c r="AU21" s="98"/>
       <c r="AV21" s="98"/>
       <c r="AW21" s="98"/>
@@ -6784,8 +6844,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>